--- a/Data/config.xlsx
+++ b/Data/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\UiPath\Template\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\UiPath\Template_CS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059C2B7D-9385-4FF6-B777-FDD7B9CDD457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A72E0FE-2617-40E3-9E89-131D72C8E007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,14 @@
   </si>
   <si>
     <t>Output 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,12 +123,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,13 +149,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,40 +443,40 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.75" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -470,7 +487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -481,7 +498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -492,17 +509,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>

--- a/Data/config.xlsx
+++ b/Data/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\UiPath\Template_CS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A72E0FE-2617-40E3-9E89-131D72C8E007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66EAE69-7336-41DB-8018-8EFF3856CD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로세스명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전체 재수행 횟수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로세스이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Process</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Process_Names</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chrome,iexplore,msedge,excel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RPA_Input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,11 +79,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Output</t>
+    <t>chrome,iexplore,msedge,EXCEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,14 +131,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,95 +420,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.75" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="18.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.75" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data/config.xlsx
+++ b/Data/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\UiPath\Template_CS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66EAE69-7336-41DB-8018-8EFF3856CD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2710646-B972-42C6-8E5F-03610555400E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
